--- a/datasheets/set/recursions_s_raw_1.xlsx
+++ b/datasheets/set/recursions_s_raw_1.xlsx
@@ -481,16 +481,16 @@
         <v>8192</v>
       </c>
       <c r="D2" t="n">
-        <v>8195</v>
+        <v>8201</v>
       </c>
       <c r="E2" t="n">
-        <v>8222</v>
+        <v>6642</v>
       </c>
       <c r="F2" t="n">
-        <v>6090</v>
+        <v>6189</v>
       </c>
       <c r="G2" t="n">
-        <v>1779</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3">
@@ -504,16 +504,16 @@
         <v>8192</v>
       </c>
       <c r="D3" t="n">
-        <v>8197</v>
+        <v>8192</v>
       </c>
       <c r="E3" t="n">
-        <v>8192</v>
+        <v>7608</v>
       </c>
       <c r="F3" t="n">
-        <v>6103</v>
+        <v>3968</v>
       </c>
       <c r="G3" t="n">
-        <v>1757</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="4">
@@ -527,16 +527,16 @@
         <v>8192</v>
       </c>
       <c r="D4" t="n">
-        <v>8192</v>
+        <v>8198</v>
       </c>
       <c r="E4" t="n">
-        <v>7799</v>
+        <v>8211</v>
       </c>
       <c r="F4" t="n">
-        <v>6163</v>
+        <v>6394</v>
       </c>
       <c r="G4" t="n">
-        <v>1773</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="5">
@@ -550,16 +550,16 @@
         <v>8192</v>
       </c>
       <c r="D5" t="n">
-        <v>8192</v>
+        <v>7936</v>
       </c>
       <c r="E5" t="n">
         <v>8192</v>
       </c>
       <c r="F5" t="n">
-        <v>6567</v>
+        <v>4082</v>
       </c>
       <c r="G5" t="n">
-        <v>2925</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         <v>8192</v>
       </c>
       <c r="D6" t="n">
-        <v>8192</v>
+        <v>6827</v>
       </c>
       <c r="E6" t="n">
-        <v>8192</v>
+        <v>8223</v>
       </c>
       <c r="F6" t="n">
-        <v>6039</v>
+        <v>4097</v>
       </c>
       <c r="G6" t="n">
-        <v>987</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="7">
@@ -599,18 +599,18 @@
         <v>8192</v>
       </c>
       <c r="E7" t="n">
-        <v>7619</v>
+        <v>8192</v>
       </c>
       <c r="F7" t="n">
-        <v>5935</v>
+        <v>6336</v>
       </c>
       <c r="G7" t="n">
-        <v>964</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8194</v>
+        <v>8192</v>
       </c>
       <c r="B8" t="n">
         <v>8192</v>
@@ -619,16 +619,16 @@
         <v>8192</v>
       </c>
       <c r="D8" t="n">
-        <v>8205</v>
+        <v>8192</v>
       </c>
       <c r="E8" t="n">
-        <v>7094</v>
+        <v>8209</v>
       </c>
       <c r="F8" t="n">
-        <v>4075</v>
+        <v>5874</v>
       </c>
       <c r="G8" t="n">
-        <v>1010</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="9">
@@ -645,13 +645,13 @@
         <v>8192</v>
       </c>
       <c r="E9" t="n">
-        <v>8200</v>
+        <v>8192</v>
       </c>
       <c r="F9" t="n">
-        <v>4056</v>
+        <v>6114</v>
       </c>
       <c r="G9" t="n">
-        <v>1934</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="10">
@@ -668,13 +668,13 @@
         <v>8192</v>
       </c>
       <c r="E10" t="n">
-        <v>8192</v>
+        <v>7117</v>
       </c>
       <c r="F10" t="n">
-        <v>6484</v>
+        <v>6075</v>
       </c>
       <c r="G10" t="n">
-        <v>1788</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="11">
@@ -688,16 +688,16 @@
         <v>8192</v>
       </c>
       <c r="D11" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="E11" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="F11" t="n">
-        <v>4079</v>
+        <v>4095</v>
       </c>
       <c r="G11" t="n">
-        <v>772</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="12">
@@ -711,16 +711,16 @@
         <v>8192</v>
       </c>
       <c r="D12" t="n">
-        <v>7565</v>
+        <v>7227</v>
       </c>
       <c r="E12" t="n">
-        <v>8211</v>
+        <v>8192</v>
       </c>
       <c r="F12" t="n">
-        <v>8048</v>
+        <v>6076</v>
       </c>
       <c r="G12" t="n">
-        <v>1922</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="13">
@@ -734,16 +734,16 @@
         <v>8192</v>
       </c>
       <c r="D13" t="n">
-        <v>8199</v>
+        <v>8203</v>
       </c>
       <c r="E13" t="n">
-        <v>8003</v>
+        <v>8192</v>
       </c>
       <c r="F13" t="n">
-        <v>6071</v>
+        <v>6005</v>
       </c>
       <c r="G13" t="n">
-        <v>1936</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="14">
@@ -757,16 +757,16 @@
         <v>8192</v>
       </c>
       <c r="D14" t="n">
-        <v>7608</v>
+        <v>8197</v>
       </c>
       <c r="E14" t="n">
-        <v>8178</v>
+        <v>6634</v>
       </c>
       <c r="F14" t="n">
-        <v>4032</v>
+        <v>6232</v>
       </c>
       <c r="G14" t="n">
-        <v>2781</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         <v>8192</v>
       </c>
       <c r="E15" t="n">
-        <v>8192</v>
+        <v>8208</v>
       </c>
       <c r="F15" t="n">
-        <v>4065</v>
+        <v>6181</v>
       </c>
       <c r="G15" t="n">
-        <v>4419</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="16">
@@ -806,13 +806,13 @@
         <v>8192</v>
       </c>
       <c r="E16" t="n">
-        <v>7067</v>
+        <v>8200</v>
       </c>
       <c r="F16" t="n">
-        <v>6112</v>
+        <v>6248</v>
       </c>
       <c r="G16" t="n">
-        <v>2962</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="17">
@@ -826,16 +826,16 @@
         <v>8192</v>
       </c>
       <c r="D17" t="n">
-        <v>8192</v>
+        <v>8195</v>
       </c>
       <c r="E17" t="n">
-        <v>8201</v>
+        <v>8209</v>
       </c>
       <c r="F17" t="n">
-        <v>6002</v>
+        <v>3970</v>
       </c>
       <c r="G17" t="n">
-        <v>1780</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="18">
@@ -849,16 +849,16 @@
         <v>8192</v>
       </c>
       <c r="D18" t="n">
-        <v>8192</v>
+        <v>8195</v>
       </c>
       <c r="E18" t="n">
-        <v>8192</v>
+        <v>7073</v>
       </c>
       <c r="F18" t="n">
-        <v>6229</v>
+        <v>4096</v>
       </c>
       <c r="G18" t="n">
-        <v>3483</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="19">
@@ -872,16 +872,16 @@
         <v>8192</v>
       </c>
       <c r="D19" t="n">
-        <v>7969</v>
+        <v>8203</v>
       </c>
       <c r="E19" t="n">
         <v>8192</v>
       </c>
       <c r="F19" t="n">
-        <v>6112</v>
+        <v>6104</v>
       </c>
       <c r="G19" t="n">
-        <v>2691</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="20">
@@ -898,13 +898,13 @@
         <v>8192</v>
       </c>
       <c r="E20" t="n">
-        <v>6638</v>
+        <v>8193</v>
       </c>
       <c r="F20" t="n">
-        <v>6564</v>
+        <v>8256</v>
       </c>
       <c r="G20" t="n">
-        <v>2775</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="21">
@@ -918,16 +918,16 @@
         <v>8192</v>
       </c>
       <c r="D21" t="n">
-        <v>8192</v>
+        <v>6816</v>
       </c>
       <c r="E21" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="F21" t="n">
-        <v>6163</v>
+        <v>8043</v>
       </c>
       <c r="G21" t="n">
-        <v>1935</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="22">
@@ -944,13 +944,13 @@
         <v>8192</v>
       </c>
       <c r="E22" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="F22" t="n">
-        <v>6000</v>
+        <v>8449</v>
       </c>
       <c r="G22" t="n">
-        <v>1934</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="23">
@@ -964,16 +964,16 @@
         <v>8192</v>
       </c>
       <c r="D23" t="n">
-        <v>8204</v>
+        <v>8192</v>
       </c>
       <c r="E23" t="n">
-        <v>8192</v>
+        <v>7164</v>
       </c>
       <c r="F23" t="n">
-        <v>6431</v>
+        <v>6543</v>
       </c>
       <c r="G23" t="n">
-        <v>1933</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="24">
@@ -987,16 +987,16 @@
         <v>8192</v>
       </c>
       <c r="D24" t="n">
-        <v>8192</v>
+        <v>7618</v>
       </c>
       <c r="E24" t="n">
-        <v>8192</v>
+        <v>7559</v>
       </c>
       <c r="F24" t="n">
-        <v>6048</v>
+        <v>4066</v>
       </c>
       <c r="G24" t="n">
-        <v>1531</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="25">
@@ -1010,16 +1010,16 @@
         <v>8192</v>
       </c>
       <c r="D25" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="E25" t="n">
-        <v>7252</v>
+        <v>7641</v>
       </c>
       <c r="F25" t="n">
-        <v>6285</v>
+        <v>6445</v>
       </c>
       <c r="G25" t="n">
-        <v>1786</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="26">
@@ -1039,10 +1039,10 @@
         <v>8192</v>
       </c>
       <c r="F26" t="n">
-        <v>6010</v>
+        <v>4094</v>
       </c>
       <c r="G26" t="n">
-        <v>2499</v>
+        <v>961</v>
       </c>
     </row>
     <row r="27">
@@ -1056,16 +1056,16 @@
         <v>8192</v>
       </c>
       <c r="D27" t="n">
-        <v>8200</v>
+        <v>8198</v>
       </c>
       <c r="E27" t="n">
-        <v>6613</v>
+        <v>8198</v>
       </c>
       <c r="F27" t="n">
-        <v>5634</v>
+        <v>6160</v>
       </c>
       <c r="G27" t="n">
-        <v>2952</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="28">
@@ -1082,13 +1082,13 @@
         <v>8192</v>
       </c>
       <c r="E28" t="n">
-        <v>8192</v>
+        <v>8198</v>
       </c>
       <c r="F28" t="n">
-        <v>6057</v>
+        <v>5993</v>
       </c>
       <c r="G28" t="n">
-        <v>1510</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="29">
@@ -1102,16 +1102,16 @@
         <v>8192</v>
       </c>
       <c r="D29" t="n">
-        <v>8192</v>
+        <v>8201</v>
       </c>
       <c r="E29" t="n">
-        <v>7253</v>
+        <v>8192</v>
       </c>
       <c r="F29" t="n">
-        <v>3995</v>
+        <v>6302</v>
       </c>
       <c r="G29" t="n">
-        <v>1753</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="30">
@@ -1125,16 +1125,16 @@
         <v>8192</v>
       </c>
       <c r="D30" t="n">
-        <v>8202</v>
+        <v>8198</v>
       </c>
       <c r="E30" t="n">
-        <v>8192</v>
+        <v>8198</v>
       </c>
       <c r="F30" t="n">
-        <v>6178</v>
+        <v>6309</v>
       </c>
       <c r="G30" t="n">
-        <v>1966</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="31">
@@ -1148,16 +1148,16 @@
         <v>8192</v>
       </c>
       <c r="D31" t="n">
-        <v>6909</v>
+        <v>8192</v>
       </c>
       <c r="E31" t="n">
-        <v>6537</v>
+        <v>7229</v>
       </c>
       <c r="F31" t="n">
-        <v>6781</v>
+        <v>6296</v>
       </c>
       <c r="G31" t="n">
-        <v>1273</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="32">
@@ -1171,16 +1171,16 @@
         <v>8192</v>
       </c>
       <c r="D32" t="n">
-        <v>7070</v>
+        <v>8192</v>
       </c>
       <c r="E32" t="n">
-        <v>7076</v>
+        <v>7265</v>
       </c>
       <c r="F32" t="n">
-        <v>4060</v>
+        <v>4059</v>
       </c>
       <c r="G32" t="n">
-        <v>1018</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="33">
@@ -1194,16 +1194,16 @@
         <v>8192</v>
       </c>
       <c r="D33" t="n">
-        <v>8192</v>
+        <v>7172</v>
       </c>
       <c r="E33" t="n">
         <v>8192</v>
       </c>
       <c r="F33" t="n">
-        <v>6266</v>
+        <v>6351</v>
       </c>
       <c r="G33" t="n">
-        <v>1967</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34">
@@ -1217,16 +1217,16 @@
         <v>8192</v>
       </c>
       <c r="D34" t="n">
-        <v>8200</v>
+        <v>8192</v>
       </c>
       <c r="E34" t="n">
-        <v>8205</v>
+        <v>8201</v>
       </c>
       <c r="F34" t="n">
-        <v>5623</v>
+        <v>6524</v>
       </c>
       <c r="G34" t="n">
-        <v>1664</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="35">
@@ -1240,16 +1240,16 @@
         <v>8192</v>
       </c>
       <c r="D35" t="n">
-        <v>8162</v>
+        <v>8192</v>
       </c>
       <c r="E35" t="n">
-        <v>8024</v>
+        <v>7599</v>
       </c>
       <c r="F35" t="n">
-        <v>6122</v>
+        <v>6130</v>
       </c>
       <c r="G35" t="n">
-        <v>1782</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="36">
@@ -1263,16 +1263,16 @@
         <v>8192</v>
       </c>
       <c r="D36" t="n">
-        <v>8203</v>
+        <v>8192</v>
       </c>
       <c r="E36" t="n">
-        <v>8192</v>
+        <v>7420</v>
       </c>
       <c r="F36" t="n">
-        <v>5815</v>
+        <v>8210</v>
       </c>
       <c r="G36" t="n">
-        <v>2777</v>
+        <v>964</v>
       </c>
     </row>
     <row r="37">
@@ -1286,16 +1286,16 @@
         <v>8192</v>
       </c>
       <c r="D37" t="n">
-        <v>8192</v>
+        <v>8195</v>
       </c>
       <c r="E37" t="n">
-        <v>7033</v>
+        <v>7613</v>
       </c>
       <c r="F37" t="n">
-        <v>4083</v>
+        <v>4095</v>
       </c>
       <c r="G37" t="n">
-        <v>1894</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="38">
@@ -1315,10 +1315,10 @@
         <v>8192</v>
       </c>
       <c r="F38" t="n">
-        <v>6215</v>
+        <v>6262</v>
       </c>
       <c r="G38" t="n">
-        <v>2826</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="39">
@@ -1332,16 +1332,16 @@
         <v>8192</v>
       </c>
       <c r="D39" t="n">
-        <v>7545</v>
+        <v>6581</v>
       </c>
       <c r="E39" t="n">
         <v>8198</v>
       </c>
       <c r="F39" t="n">
-        <v>6288</v>
+        <v>4095</v>
       </c>
       <c r="G39" t="n">
-        <v>3246</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="40">
@@ -1355,16 +1355,16 @@
         <v>8192</v>
       </c>
       <c r="D40" t="n">
-        <v>8208</v>
+        <v>8192</v>
       </c>
       <c r="E40" t="n">
-        <v>8203</v>
+        <v>7340</v>
       </c>
       <c r="F40" t="n">
-        <v>6009</v>
+        <v>6130</v>
       </c>
       <c r="G40" t="n">
-        <v>3087</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="41">
@@ -1381,13 +1381,13 @@
         <v>8192</v>
       </c>
       <c r="E41" t="n">
-        <v>7930</v>
+        <v>8201</v>
       </c>
       <c r="F41" t="n">
-        <v>6224</v>
+        <v>6066</v>
       </c>
       <c r="G41" t="n">
-        <v>996</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="42">
@@ -1401,16 +1401,16 @@
         <v>8192</v>
       </c>
       <c r="D42" t="n">
-        <v>7864</v>
+        <v>8202</v>
       </c>
       <c r="E42" t="n">
-        <v>7193</v>
+        <v>7620</v>
       </c>
       <c r="F42" t="n">
-        <v>6129</v>
+        <v>8210</v>
       </c>
       <c r="G42" t="n">
-        <v>1533</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="43">
@@ -1424,16 +1424,16 @@
         <v>8192</v>
       </c>
       <c r="D43" t="n">
-        <v>8192</v>
+        <v>6877</v>
       </c>
       <c r="E43" t="n">
-        <v>8192</v>
+        <v>8198</v>
       </c>
       <c r="F43" t="n">
-        <v>3834</v>
+        <v>6435</v>
       </c>
       <c r="G43" t="n">
-        <v>1784</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="44">
@@ -1447,16 +1447,16 @@
         <v>8192</v>
       </c>
       <c r="D44" t="n">
-        <v>8192</v>
+        <v>8201</v>
       </c>
       <c r="E44" t="n">
-        <v>8177</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>6087</v>
+        <v>6253</v>
       </c>
       <c r="G44" t="n">
-        <v>1768</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="45">
@@ -1470,16 +1470,16 @@
         <v>8192</v>
       </c>
       <c r="D45" t="n">
-        <v>8192</v>
+        <v>8198</v>
       </c>
       <c r="E45" t="n">
-        <v>8212</v>
+        <v>7627</v>
       </c>
       <c r="F45" t="n">
-        <v>5085</v>
+        <v>5980</v>
       </c>
       <c r="G45" t="n">
-        <v>2631</v>
+        <v>900</v>
       </c>
     </row>
     <row r="46">
@@ -1496,13 +1496,13 @@
         <v>8192</v>
       </c>
       <c r="E46" t="n">
-        <v>6318</v>
+        <v>8033</v>
       </c>
       <c r="F46" t="n">
-        <v>6562</v>
+        <v>6364</v>
       </c>
       <c r="G46" t="n">
-        <v>772</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="47">
@@ -1516,16 +1516,16 @@
         <v>8192</v>
       </c>
       <c r="D47" t="n">
-        <v>8192</v>
+        <v>7326</v>
       </c>
       <c r="E47" t="n">
-        <v>7682</v>
+        <v>7069</v>
       </c>
       <c r="F47" t="n">
-        <v>6099</v>
+        <v>6175</v>
       </c>
       <c r="G47" t="n">
-        <v>1775</v>
+        <v>900</v>
       </c>
     </row>
     <row r="48">
@@ -1542,13 +1542,13 @@
         <v>8192</v>
       </c>
       <c r="E48" t="n">
-        <v>7607</v>
+        <v>8192</v>
       </c>
       <c r="F48" t="n">
-        <v>6194</v>
+        <v>6018</v>
       </c>
       <c r="G48" t="n">
-        <v>3304</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="49">
@@ -1562,16 +1562,16 @@
         <v>8192</v>
       </c>
       <c r="D49" t="n">
-        <v>8200</v>
+        <v>8192</v>
       </c>
       <c r="E49" t="n">
-        <v>8192</v>
+        <v>8211</v>
       </c>
       <c r="F49" t="n">
-        <v>6129</v>
+        <v>6011</v>
       </c>
       <c r="G49" t="n">
-        <v>1908</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="50">
@@ -1588,13 +1588,13 @@
         <v>8192</v>
       </c>
       <c r="E50" t="n">
-        <v>7822</v>
+        <v>6660</v>
       </c>
       <c r="F50" t="n">
-        <v>6128</v>
+        <v>6195</v>
       </c>
       <c r="G50" t="n">
-        <v>2743</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="51">
@@ -1608,16 +1608,16 @@
         <v>8192</v>
       </c>
       <c r="D51" t="n">
-        <v>8192</v>
+        <v>8205</v>
       </c>
       <c r="E51" t="n">
         <v>8192</v>
       </c>
       <c r="F51" t="n">
-        <v>8228</v>
+        <v>6136</v>
       </c>
       <c r="G51" t="n">
-        <v>514</v>
+        <v>1993</v>
       </c>
     </row>
   </sheetData>
